--- a/Abnormality of prenatal development or birth_v1.0.xlsx
+++ b/Abnormality of prenatal development or birth_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683100BC-1F20-6A4C-9DE9-C373B32195D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F731C1-7216-1342-9425-C1E0156AA659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30700" yWindow="3360" windowWidth="33040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="388">
   <si>
     <t>orig_entry</t>
   </si>
@@ -602,6 +602,573 @@
   </si>
   <si>
     <t>Premature closure of the ductus arteriosus</t>
+  </si>
+  <si>
+    <t>胎膜早期破裂に伴う早産</t>
+  </si>
+  <si>
+    <t>中～後期早産</t>
+  </si>
+  <si>
+    <t>超早産</t>
+  </si>
+  <si>
+    <t>子宮頸管機能不全または膜脆弱性による早産</t>
+  </si>
+  <si>
+    <t>妊娠後期</t>
+  </si>
+  <si>
+    <t>羊水過少症</t>
+  </si>
+  <si>
+    <t>メコニウム染色羊水</t>
+  </si>
+  <si>
+    <t>多羊水膜症</t>
+  </si>
+  <si>
+    <t>無月経</t>
+  </si>
+  <si>
+    <t>胎児多尿</t>
+  </si>
+  <si>
+    <t>胞状奇胎</t>
+  </si>
+  <si>
+    <t>臍帯分離遅延</t>
+  </si>
+  <si>
+    <t>四枝臍帯</t>
+  </si>
+  <si>
+    <t>単一臍動脈</t>
+  </si>
+  <si>
+    <t>臍動脈の拍動性の上昇</t>
+  </si>
+  <si>
+    <t>拡張末期臍動脈逆流</t>
+  </si>
+  <si>
+    <t>拡張末期臍動脈血流の消失</t>
+  </si>
+  <si>
+    <t>臍帯静脈血流の異常</t>
+  </si>
+  <si>
+    <t>毛状臍帯挿入</t>
+  </si>
+  <si>
+    <t>限界臍帯挿入</t>
+  </si>
+  <si>
+    <t>前置静脈瘤</t>
+  </si>
+  <si>
+    <t>蛇行臍帯挿入</t>
+  </si>
+  <si>
+    <t>短い臍帯</t>
+  </si>
+  <si>
+    <t>臍帯結び目</t>
+  </si>
+  <si>
+    <t>腹外臍静脈瘤</t>
+  </si>
+  <si>
+    <t>胎児腹腔内臍静脈瘤</t>
+  </si>
+  <si>
+    <t>長い臍帯</t>
+  </si>
+  <si>
+    <t>臍帯血低酸素血症</t>
+  </si>
+  <si>
+    <t>臍帯血高酸素血症</t>
+  </si>
+  <si>
+    <t>臍帯血低カプニア血症</t>
+  </si>
+  <si>
+    <t>臍帯嚢胞</t>
+  </si>
+  <si>
+    <t>臍帯血腫</t>
+  </si>
+  <si>
+    <t>新生児脳炎</t>
+  </si>
+  <si>
+    <t>胎盤剥離</t>
+  </si>
+  <si>
+    <t>水腫性胎盤</t>
+  </si>
+  <si>
+    <t>胎盤の厚さ増加</t>
+  </si>
+  <si>
+    <t>小さな胎盤</t>
+  </si>
+  <si>
+    <t>絨毛膜下隔嚢胞</t>
+  </si>
+  <si>
+    <t>胎盤梗塞</t>
+  </si>
+  <si>
+    <t>胎盤間葉系異形成</t>
+  </si>
+  <si>
+    <t>浮腫性絨毛</t>
+  </si>
+  <si>
+    <t>石灰化胎盤</t>
+  </si>
+  <si>
+    <t>胎盤周囲炎</t>
+  </si>
+  <si>
+    <t>急性胎盤</t>
+  </si>
+  <si>
+    <t>増多胎盤</t>
+  </si>
+  <si>
+    <t>母体血管不全</t>
+  </si>
+  <si>
+    <t>絨毛血管腫</t>
+  </si>
+  <si>
+    <t>絨毛膜下血栓血腫</t>
+  </si>
+  <si>
+    <t>胎児血管不全</t>
+  </si>
+  <si>
+    <t>絨毛がん</t>
+  </si>
+  <si>
+    <t>自然羊膜剥離</t>
+  </si>
+  <si>
+    <t>足の羊膜攣縮輪</t>
+  </si>
+  <si>
+    <t>趾球狭窄輪</t>
+  </si>
+  <si>
+    <t>腕の羊膜攣縮輪</t>
+  </si>
+  <si>
+    <t>慢性絨毛膜炎</t>
+  </si>
+  <si>
+    <t>羊膜シート</t>
+  </si>
+  <si>
+    <t>着床前致死</t>
+  </si>
+  <si>
+    <t>接合卵割不全</t>
+  </si>
+  <si>
+    <t>反復着床障害</t>
+  </si>
+  <si>
+    <t>受精時の多発前核形成</t>
+  </si>
+  <si>
+    <t>誘発経膣分娩</t>
+  </si>
+  <si>
+    <t>完全逆子</t>
+  </si>
+  <si>
+    <t>不完全逆子</t>
+  </si>
+  <si>
+    <t>フランク逆子</t>
+  </si>
+  <si>
+    <t>二次帝王切開</t>
+  </si>
+  <si>
+    <t>一次帝王切開</t>
+  </si>
+  <si>
+    <t>オドン式分娩</t>
+  </si>
+  <si>
+    <t>鉗子分娩</t>
+  </si>
+  <si>
+    <t>頭血腫</t>
+  </si>
+  <si>
+    <t>帝王切開後の膣分娩</t>
+  </si>
+  <si>
+    <t>肩甲難産</t>
+  </si>
+  <si>
+    <t>治療的人工妊娠中絶</t>
+  </si>
+  <si>
+    <t>へその緒</t>
+  </si>
+  <si>
+    <t>子宮外妊娠</t>
+  </si>
+  <si>
+    <t>母体高フェニルアラニン血症</t>
+  </si>
+  <si>
+    <t>自然流産の再発</t>
+  </si>
+  <si>
+    <t>妊娠悪阻</t>
+  </si>
+  <si>
+    <t>母体高血圧症</t>
+  </si>
+  <si>
+    <t>子癇</t>
+  </si>
+  <si>
+    <t>子癇前症</t>
+  </si>
+  <si>
+    <t>妊娠中の母体の男性化</t>
+  </si>
+  <si>
+    <t>低母体循環PAPP-A濃度</t>
+  </si>
+  <si>
+    <t>高母体循環α-フェト蛋白濃度</t>
+  </si>
+  <si>
+    <t>低母体循環エストリオール濃度</t>
+  </si>
+  <si>
+    <t>低母体循環絨毛性ゴナドトロピン濃度</t>
+  </si>
+  <si>
+    <t>母体循環絨毛性ゴナドトロピン濃度高値</t>
+  </si>
+  <si>
+    <t>低母体循環αフェトプロテイン濃度</t>
+  </si>
+  <si>
+    <t>母親の催奇形性曝露</t>
+  </si>
+  <si>
+    <t>母体血栓症</t>
+  </si>
+  <si>
+    <t>母体糖尿病</t>
+  </si>
+  <si>
+    <t>母体第一期発熱</t>
+  </si>
+  <si>
+    <t>分娩中の発熱</t>
+  </si>
+  <si>
+    <t>歪んだ母体X不活性化</t>
+  </si>
+  <si>
+    <t>母体抗カルジオリピン抗体陽性</t>
+  </si>
+  <si>
+    <t>母体の痙攣</t>
+  </si>
+  <si>
+    <t>10分間APGARスコア2</t>
+  </si>
+  <si>
+    <t>10分間APGARスコア5</t>
+  </si>
+  <si>
+    <t>10分間APGARスコア1</t>
+  </si>
+  <si>
+    <t>10分間APGARスコア0</t>
+  </si>
+  <si>
+    <t>10分間のAPGARスコア4</t>
+  </si>
+  <si>
+    <t>10分間のAPGARスコア6</t>
+  </si>
+  <si>
+    <t>10分間のAPGARスコア3</t>
+  </si>
+  <si>
+    <t>1分間のAPGARスコア5</t>
+  </si>
+  <si>
+    <t>1分間のAPGARスコア6</t>
+  </si>
+  <si>
+    <t>1分間のAPGARスコア0</t>
+  </si>
+  <si>
+    <t>1分間のAPGARスコア1</t>
+  </si>
+  <si>
+    <t>1分間のAPGARスコア3</t>
+  </si>
+  <si>
+    <t>1分間のAPGARスコア4</t>
+  </si>
+  <si>
+    <t>1分間のAPGARスコア2</t>
+  </si>
+  <si>
+    <t>5分間のAPGARスコア0</t>
+  </si>
+  <si>
+    <t>5分間のAPGARスコア5</t>
+  </si>
+  <si>
+    <t>5分間のAPGARスコア1</t>
+  </si>
+  <si>
+    <t>5分間のAPGARスコア4</t>
+  </si>
+  <si>
+    <t>5分間のAPGARスコア6</t>
+  </si>
+  <si>
+    <t>5分間のAPGARスコア3</t>
+  </si>
+  <si>
+    <t>5分間のAPGARスコア2</t>
+  </si>
+  <si>
+    <t>分APGARスコア2</t>
+  </si>
+  <si>
+    <t>両側胎児無気肺</t>
+  </si>
+  <si>
+    <t>エコー源性心内フォーカス</t>
+  </si>
+  <si>
+    <t>短い胎児上腕骨長</t>
+  </si>
+  <si>
+    <t>肥大した胎児脳槽</t>
+  </si>
+  <si>
+    <t>胎児腸管エコー</t>
+  </si>
+  <si>
+    <t>胎児第5指臨床指節症</t>
+  </si>
+  <si>
+    <t>軽度の胎児脳室肥大</t>
+  </si>
+  <si>
+    <t>短い胎児大腿骨長</t>
+  </si>
+  <si>
+    <t>胎児超音波検査における胃の気泡の欠如</t>
+  </si>
+  <si>
+    <t>胎児鼻骨の低形成</t>
+  </si>
+  <si>
+    <t>胎児脈絡叢嚢胞</t>
+  </si>
+  <si>
+    <t>胎児頚部浮腫</t>
+  </si>
+  <si>
+    <t>胎児頚部腫瘤</t>
+  </si>
+  <si>
+    <t>頸部リンパ嚢腫</t>
+  </si>
+  <si>
+    <t>頚部透光性の増大</t>
+  </si>
+  <si>
+    <t>胎児嚢胞性水腫</t>
+  </si>
+  <si>
+    <t>低形成鼻骨</t>
+  </si>
+  <si>
+    <t>胎児鼻骨の欠如</t>
+  </si>
+  <si>
+    <t>胎児大腿骨/足長比の減少</t>
+  </si>
+  <si>
+    <t>シャンパンコルク徴候</t>
+  </si>
+  <si>
+    <t>レモン徴候</t>
+  </si>
+  <si>
+    <t>胎児三頭筋</t>
+  </si>
+  <si>
+    <t>胎児長骨エコー原性の減少</t>
+  </si>
+  <si>
+    <t>胎児長骨エコー増加</t>
+  </si>
+  <si>
+    <t>胎児脳実質出血</t>
+  </si>
+  <si>
+    <t>脳室肥大を伴わない胎児脳室内出血</t>
+  </si>
+  <si>
+    <t>脳室肥大を伴う胎児脳室内出血</t>
+  </si>
+  <si>
+    <t>胎児性脳下垂体出血</t>
+  </si>
+  <si>
+    <t>脳室周囲出血を伴う胎児脳室内出血</t>
+  </si>
+  <si>
+    <t>胎児軸外出血</t>
+  </si>
+  <si>
+    <t>胎児小脳半球出血</t>
+  </si>
+  <si>
+    <t>胎児小脳縁出血</t>
+  </si>
+  <si>
+    <t>透明腔欠損</t>
+  </si>
+  <si>
+    <t>胎児水晶体エコー増加</t>
+  </si>
+  <si>
+    <t>胎児心臓流出路異常</t>
+  </si>
+  <si>
+    <t>胎児心臓の異常な4室像</t>
+  </si>
+  <si>
+    <t>卵円孔瘤</t>
+  </si>
+  <si>
+    <t>胎児心嚢液貯留</t>
+  </si>
+  <si>
+    <t>静脈管形成不全</t>
+  </si>
+  <si>
+    <t>胎児頭皮腫瘤</t>
+  </si>
+  <si>
+    <t>胎児皮膚浮腫</t>
+  </si>
+  <si>
+    <t>出生直後の皮膚の落屑</t>
+  </si>
+  <si>
+    <t>カゼ性胎脂様落屑</t>
+  </si>
+  <si>
+    <t>欠落性産毛</t>
+  </si>
+  <si>
+    <t>2型先天性肺気道奇形</t>
+  </si>
+  <si>
+    <t>1型先天性肺気道奇形</t>
+  </si>
+  <si>
+    <t>3型先天性肺気道奇形</t>
+  </si>
+  <si>
+    <t>胎児気胸</t>
+  </si>
+  <si>
+    <t>胎児水胸</t>
+  </si>
+  <si>
+    <t>胃仮死</t>
+  </si>
+  <si>
+    <t>胎児腹水</t>
+  </si>
+  <si>
+    <t>出生前二重気泡徴候</t>
+  </si>
+  <si>
+    <t>胎児腹部嚢胞</t>
+  </si>
+  <si>
+    <t>胎児腸管拡張</t>
+  </si>
+  <si>
+    <t>メコニウム仮性嚢胞</t>
+  </si>
+  <si>
+    <t>胎児下部尿路閉塞</t>
+  </si>
+  <si>
+    <t>超音波非観血的胎児膀胱</t>
+  </si>
+  <si>
+    <t>女性胎児の処女化</t>
+  </si>
+  <si>
+    <t>非免疫性胎児水腫</t>
+  </si>
+  <si>
+    <t>胎動の増加</t>
+  </si>
+  <si>
+    <t>胎児アキネジアシークエンス</t>
+  </si>
+  <si>
+    <t>胎児貧血</t>
+  </si>
+  <si>
+    <t>中大脳動脈拍動指数の低下</t>
+  </si>
+  <si>
+    <t>持続性胎児循環</t>
+  </si>
+  <si>
+    <t>先天性ポートコステティック静脈シャント</t>
+  </si>
+  <si>
+    <t>持続性静脈管開存症</t>
+  </si>
+  <si>
+    <t>静脈管血流異常</t>
+  </si>
+  <si>
+    <t>胎児中大脳動脈収縮期ピーク速度上昇</t>
+  </si>
+  <si>
+    <t>妊娠中期以降の片方の双子の子宮内胎児死亡</t>
+  </si>
+  <si>
+    <t>胎児の苦痛</t>
+  </si>
+  <si>
+    <t>双胎間輸血</t>
+  </si>
+  <si>
+    <t>動脈管早期閉鎖</t>
   </si>
   <si>
     <t>エコーでの胆嚢の所見</t>
@@ -1586,7 +2153,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1596,7 +2163,7 @@
     <col min="7" max="7" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,19 +2171,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>384</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>386</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>5100</v>
       </c>
@@ -1629,8 +2196,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>25664</v>
       </c>
@@ -1643,8 +2213,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>25665</v>
       </c>
@@ -1657,8 +2230,11 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5267</v>
       </c>
@@ -1671,8 +2247,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>25666</v>
       </c>
@@ -1685,8 +2264,11 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>31169</v>
       </c>
@@ -1696,8 +2278,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1562</v>
       </c>
@@ -1713,8 +2298,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>12420</v>
       </c>
@@ -1727,8 +2315,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1561</v>
       </c>
@@ -1738,8 +2329,11 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>25700</v>
       </c>
@@ -1755,8 +2349,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1563</v>
       </c>
@@ -1766,8 +2363,11 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>32192</v>
       </c>
@@ -1777,8 +2377,11 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>32434</v>
       </c>
@@ -1794,8 +2397,11 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>32513</v>
       </c>
@@ -1811,8 +2417,11 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1195</v>
       </c>
@@ -1828,8 +2437,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>34223</v>
       </c>
@@ -1842,8 +2454,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>34225</v>
       </c>
@@ -1856,8 +2471,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>34224</v>
       </c>
@@ -1870,8 +2488,11 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>10949</v>
       </c>
@@ -1884,8 +2505,11 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>30660</v>
       </c>
@@ -1898,8 +2522,11 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>30658</v>
       </c>
@@ -1912,8 +2539,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>33991</v>
       </c>
@@ -1929,8 +2559,11 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>30659</v>
       </c>
@@ -1943,8 +2576,11 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1196</v>
       </c>
@@ -1957,8 +2593,11 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>30655</v>
       </c>
@@ -1971,8 +2610,11 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25689</v>
       </c>
@@ -1985,8 +2627,11 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>25690</v>
       </c>
@@ -2002,8 +2647,11 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>11417</v>
       </c>
@@ -2016,8 +2664,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>410213</v>
       </c>
@@ -2030,8 +2681,11 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>410212</v>
       </c>
@@ -2044,8 +2698,11 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>410214</v>
       </c>
@@ -2058,8 +2715,11 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>410215</v>
       </c>
@@ -2072,8 +2732,11 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>30654</v>
       </c>
@@ -2089,8 +2752,11 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>30657</v>
       </c>
@@ -2106,8 +2772,11 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>32435</v>
       </c>
@@ -2123,8 +2792,11 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>11419</v>
       </c>
@@ -2137,8 +2809,11 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>11414</v>
       </c>
@@ -2151,8 +2826,11 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>32548</v>
       </c>
@@ -2165,8 +2843,11 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>6266</v>
       </c>
@@ -2179,8 +2860,11 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>30720</v>
       </c>
@@ -2193,8 +2877,11 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>11416</v>
       </c>
@@ -2210,8 +2897,11 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>32165</v>
       </c>
@@ -2224,8 +2914,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>33043</v>
       </c>
@@ -2241,8 +2934,11 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>11415</v>
       </c>
@@ -2255,8 +2951,11 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>25653</v>
       </c>
@@ -2269,8 +2968,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>25654</v>
       </c>
@@ -2283,8 +2985,11 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>25655</v>
       </c>
@@ -2297,8 +3002,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>25719</v>
       </c>
@@ -2311,8 +3019,11 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>100883</v>
       </c>
@@ -2328,8 +3039,11 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>30714</v>
       </c>
@@ -2345,8 +3059,11 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>25729</v>
       </c>
@@ -2362,8 +3079,11 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>100768</v>
       </c>
@@ -2376,8 +3096,11 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>25712</v>
       </c>
@@ -2393,8 +3116,11 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>10495</v>
       </c>
@@ -2410,8 +3136,11 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>10491</v>
       </c>
@@ -2427,8 +3156,11 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>10483</v>
       </c>
@@ -2444,8 +3176,11 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>33552</v>
       </c>
@@ -2461,8 +3196,11 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>30763</v>
       </c>
@@ -2475,8 +3213,11 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>32479</v>
       </c>
@@ -2492,8 +3233,11 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>33336</v>
       </c>
@@ -2506,8 +3250,11 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>33712</v>
       </c>
@@ -2520,8 +3267,11 @@
       <c r="D62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>4000008</v>
       </c>
@@ -2534,8 +3284,11 @@
       <c r="D63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>30369</v>
       </c>
@@ -2545,8 +3298,11 @@
       <c r="D64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>10860</v>
       </c>
@@ -2559,8 +3315,11 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>10861</v>
       </c>
@@ -2573,8 +3332,11 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>10859</v>
       </c>
@@ -2587,8 +3349,11 @@
       <c r="E67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>30364</v>
       </c>
@@ -2598,8 +3363,11 @@
       <c r="D68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>30363</v>
       </c>
@@ -2609,8 +3377,11 @@
       <c r="D69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>30366</v>
       </c>
@@ -2620,8 +3391,11 @@
       <c r="D70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>11411</v>
       </c>
@@ -2631,8 +3405,11 @@
       <c r="D71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>12541</v>
       </c>
@@ -2645,8 +3422,11 @@
       <c r="F72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>30365</v>
       </c>
@@ -2656,8 +3436,11 @@
       <c r="D73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>11413</v>
       </c>
@@ -2667,8 +3450,11 @@
       <c r="D74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>30449</v>
       </c>
@@ -2678,8 +3464,11 @@
       <c r="D75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>11412</v>
       </c>
@@ -2690,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>12498</v>
       </c>
@@ -2703,8 +3492,11 @@
       <c r="F77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>31456</v>
       </c>
@@ -2717,8 +3509,11 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>100610</v>
       </c>
@@ -2728,8 +3523,11 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>200067</v>
       </c>
@@ -2742,8 +3540,11 @@
       <c r="D80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>12188</v>
       </c>
@@ -2759,8 +3560,11 @@
       <c r="F81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>8071</v>
       </c>
@@ -2776,8 +3580,11 @@
       <c r="F82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>100601</v>
       </c>
@@ -2793,8 +3600,11 @@
       <c r="F83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>100602</v>
       </c>
@@ -2810,8 +3620,11 @@
       <c r="F84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>8072</v>
       </c>
@@ -2824,8 +3637,11 @@
       <c r="F85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>11435</v>
       </c>
@@ -2835,8 +3651,11 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>11432</v>
       </c>
@@ -2846,8 +3665,11 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>8073</v>
       </c>
@@ -2857,8 +3679,11 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>11434</v>
       </c>
@@ -2868,8 +3693,11 @@
       <c r="E89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>11433</v>
       </c>
@@ -2879,8 +3707,11 @@
       <c r="E90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>10570</v>
       </c>
@@ -2890,8 +3721,11 @@
       <c r="E91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>11438</v>
       </c>
@@ -2901,8 +3735,11 @@
       <c r="D92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>40222</v>
       </c>
@@ -2915,8 +3752,11 @@
       <c r="D93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>9800</v>
       </c>
@@ -2932,8 +3772,11 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>30246</v>
       </c>
@@ -2946,8 +3789,11 @@
       <c r="D95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>30245</v>
       </c>
@@ -2960,8 +3806,11 @@
       <c r="D96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>12546</v>
       </c>
@@ -2971,8 +3820,11 @@
       <c r="E97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>12536</v>
       </c>
@@ -2982,8 +3834,11 @@
       <c r="E98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>100622</v>
       </c>
@@ -2993,8 +3848,11 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>33470</v>
       </c>
@@ -3007,8 +3865,11 @@
       <c r="F100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>33473</v>
       </c>
@@ -3021,8 +3882,11 @@
       <c r="F101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>33469</v>
       </c>
@@ -3035,8 +3899,11 @@
       <c r="F102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>33468</v>
       </c>
@@ -3049,8 +3916,11 @@
       <c r="F103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>33472</v>
       </c>
@@ -3063,8 +3933,11 @@
       <c r="F104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>33474</v>
       </c>
@@ -3077,8 +3950,11 @@
       <c r="F105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>33471</v>
       </c>
@@ -3091,8 +3967,11 @@
       <c r="F106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>30932</v>
       </c>
@@ -3105,8 +3984,11 @@
       <c r="F107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>30933</v>
       </c>
@@ -3119,8 +4001,11 @@
       <c r="F108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>30927</v>
       </c>
@@ -3133,8 +4018,11 @@
       <c r="F109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>30928</v>
       </c>
@@ -3147,8 +4035,11 @@
       <c r="F110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>30930</v>
       </c>
@@ -3161,8 +4052,11 @@
       <c r="F111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>30931</v>
       </c>
@@ -3175,8 +4069,11 @@
       <c r="F112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>30929</v>
       </c>
@@ -3189,8 +4086,11 @@
       <c r="F113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>30920</v>
       </c>
@@ -3203,8 +4103,11 @@
       <c r="F114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>30925</v>
       </c>
@@ -3217,8 +4120,11 @@
       <c r="F115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>30921</v>
       </c>
@@ -3231,8 +4137,11 @@
       <c r="F116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>30924</v>
       </c>
@@ -3245,8 +4154,11 @@
       <c r="F117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>30926</v>
       </c>
@@ -3259,8 +4171,11 @@
       <c r="F118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>30923</v>
       </c>
@@ -3273,8 +4188,11 @@
       <c r="F119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>30922</v>
       </c>
@@ -3287,8 +4205,11 @@
       <c r="F120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>474</v>
       </c>
@@ -3301,8 +4222,11 @@
       <c r="F121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>11129</v>
       </c>
@@ -3315,8 +4239,11 @@
       <c r="E122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>10942</v>
       </c>
@@ -3329,8 +4256,11 @@
       <c r="E123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>11429</v>
       </c>
@@ -3343,8 +4273,11 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>11427</v>
       </c>
@@ -3357,8 +4290,11 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>10943</v>
       </c>
@@ -3371,8 +4307,11 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>11431</v>
       </c>
@@ -3385,8 +4324,11 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>10952</v>
       </c>
@@ -3398,6 +4340,9 @@
       </c>
       <c r="E128" s="1">
         <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -3413,6 +4358,9 @@
       <c r="E129" s="1">
         <v>1</v>
       </c>
+      <c r="G129" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
@@ -3427,6 +4375,9 @@
       <c r="E130" s="1">
         <v>1</v>
       </c>
+      <c r="G130" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
@@ -3441,6 +4392,9 @@
       <c r="E131" s="1">
         <v>1</v>
       </c>
+      <c r="G131" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
@@ -3455,6 +4409,9 @@
       <c r="E132" s="1">
         <v>1</v>
       </c>
+      <c r="G132" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
@@ -3469,6 +4426,9 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
+      <c r="G133" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
@@ -3483,6 +4443,9 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
+      <c r="G134" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
@@ -3497,6 +4460,9 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
+      <c r="G135" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
@@ -3511,6 +4477,9 @@
       <c r="E136" s="1">
         <v>1</v>
       </c>
+      <c r="G136" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
@@ -3525,6 +4494,9 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
+      <c r="G137" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
@@ -3539,6 +4511,9 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
+      <c r="G138" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
@@ -3553,6 +4528,9 @@
       <c r="E139" s="1">
         <v>1</v>
       </c>
+      <c r="G139" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
@@ -3567,6 +4545,9 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
+      <c r="G140" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
@@ -3581,8 +4562,11 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
+      <c r="G141" t="s">
+        <v>330</v>
+      </c>
       <c r="I141" t="s">
-        <v>194</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -3598,6 +4582,9 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
+      <c r="G142" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
@@ -3618,6 +4605,9 @@
       <c r="F143" s="1">
         <v>1</v>
       </c>
+      <c r="G143" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
@@ -3632,8 +4622,11 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>34074</v>
       </c>
@@ -3646,8 +4639,11 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>34211</v>
       </c>
@@ -3663,8 +4659,11 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>34214</v>
       </c>
@@ -3680,8 +4679,11 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>34218</v>
       </c>
@@ -3697,8 +4699,11 @@
       <c r="E148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>34209</v>
       </c>
@@ -3714,8 +4719,11 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>34219</v>
       </c>
@@ -3731,8 +4739,11 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>34212</v>
       </c>
@@ -3748,8 +4759,11 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>34215</v>
       </c>
@@ -3765,8 +4779,11 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>34216</v>
       </c>
@@ -3782,8 +4799,11 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>4000138</v>
       </c>
@@ -3799,8 +4819,11 @@
       <c r="E154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>34248</v>
       </c>
@@ -3813,8 +4836,11 @@
       <c r="E155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>4000143</v>
       </c>
@@ -3827,8 +4853,11 @@
       <c r="E156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>4000105</v>
       </c>
@@ -3841,8 +4870,11 @@
       <c r="E157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>25730</v>
       </c>
@@ -3858,8 +4890,11 @@
       <c r="E158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>25671</v>
       </c>
@@ -3875,8 +4910,11 @@
       <c r="E159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>34196</v>
       </c>
@@ -3892,8 +4930,11 @@
       <c r="E160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>34246</v>
       </c>
@@ -3909,8 +4950,11 @@
       <c r="E161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>25672</v>
       </c>
@@ -3926,8 +4970,11 @@
       <c r="E162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>7549</v>
       </c>
@@ -3940,8 +4987,11 @@
       <c r="F163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>25724</v>
       </c>
@@ -3954,8 +5004,11 @@
       <c r="F164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>34262</v>
       </c>
@@ -3968,8 +5021,11 @@
       <c r="F165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>25726</v>
       </c>
@@ -3985,8 +5041,11 @@
       <c r="E166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>25725</v>
       </c>
@@ -4002,8 +5061,11 @@
       <c r="E167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>25727</v>
       </c>
@@ -4019,8 +5081,11 @@
       <c r="E168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>25677</v>
       </c>
@@ -4036,8 +5101,11 @@
       <c r="E169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>25678</v>
       </c>
@@ -4053,8 +5121,11 @@
       <c r="E170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>34244</v>
       </c>
@@ -4067,8 +5138,11 @@
       <c r="E171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>1791</v>
       </c>
@@ -4084,8 +5158,11 @@
       <c r="E172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>25656</v>
       </c>
@@ -4098,8 +5175,11 @@
       <c r="E173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>4000139</v>
       </c>
@@ -4112,8 +5192,11 @@
       <c r="E174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>4000140</v>
       </c>
@@ -4126,8 +5209,11 @@
       <c r="E175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>25674</v>
       </c>
@@ -4140,8 +5226,11 @@
       <c r="E176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>34247</v>
       </c>
@@ -4154,8 +5243,11 @@
       <c r="E177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>34217</v>
       </c>
@@ -4168,8 +5260,11 @@
       <c r="E178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>31170</v>
       </c>
@@ -4182,8 +5277,11 @@
       <c r="E179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>1790</v>
       </c>
@@ -4196,8 +5294,11 @@
       <c r="E180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>10519</v>
       </c>
@@ -4210,8 +5311,11 @@
       <c r="E181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>1989</v>
       </c>
@@ -4227,8 +5331,11 @@
       <c r="E182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>25716</v>
       </c>
@@ -4244,8 +5351,11 @@
       <c r="E183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>41095</v>
       </c>
@@ -4258,8 +5368,11 @@
       <c r="E184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>11726</v>
       </c>
@@ -4275,8 +5388,11 @@
       <c r="E185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>12022</v>
       </c>
@@ -4292,8 +5408,11 @@
       <c r="E186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>12021</v>
       </c>
@@ -4309,8 +5428,11 @@
       <c r="E187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>10947</v>
       </c>
@@ -4326,8 +5448,11 @@
       <c r="E188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>34191</v>
       </c>
@@ -4340,8 +5465,11 @@
       <c r="E189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>30753</v>
       </c>
@@ -4354,8 +5482,11 @@
       <c r="D190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>25116</v>
       </c>
@@ -4368,8 +5499,11 @@
       <c r="E191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>31110</v>
       </c>
@@ -4379,8 +5513,11 @@
       <c r="C192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="G192" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>25675</v>
       </c>
@@ -4392,6 +5529,9 @@
       </c>
       <c r="D193" s="1">
         <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
